--- a/results/tabla_2a_metrics_raw.xlsx
+++ b/results/tabla_2a_metrics_raw.xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>CI 2.5%</t>
+  </si>
+  <si>
+    <t>CI 97.5%</t>
+  </si>
   <si>
     <t>Area under curve ROC</t>
   </si>
@@ -392,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,43 +417,103 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2">
+        <v>0.7897943640517898</v>
+      </c>
+      <c r="C2">
+        <v>0.6975516916403045</v>
+      </c>
+      <c r="D2">
+        <v>0.8820370364632751</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B3">
+        <v>0.7295611175590314</v>
+      </c>
+      <c r="C3">
+        <v>0.12681115491039</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B4">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="C4">
+        <v>0.6602160477740942</v>
+      </c>
+      <c r="D4">
+        <v>0.8254982379401916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.7918436703483432</v>
-      </c>
-      <c r="C2">
-        <v>0.770512240546266</v>
-      </c>
-      <c r="D2">
-        <v>0.7285714285714285</v>
-      </c>
-      <c r="E2">
-        <v>0.2714285714285715</v>
-      </c>
-      <c r="F2">
-        <v>0.9058823529411765</v>
-      </c>
-      <c r="G2">
-        <v>0.719626168224299</v>
-      </c>
-      <c r="H2">
-        <v>0.8020833333333333</v>
+      <c r="B5">
+        <v>0.2571428571428571</v>
+      </c>
+      <c r="C5">
+        <v>0.1745017620598083</v>
+      </c>
+      <c r="D5">
+        <v>0.3397839522259059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="C6">
+        <v>0.7878669014494218</v>
+      </c>
+      <c r="D6">
+        <v>0.9768389809035193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.7425742574257426</v>
+      </c>
+      <c r="C7">
+        <v>0.6423244822293166</v>
+      </c>
+      <c r="D7">
+        <v>0.8428240326221685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.8064516129032258</v>
+      </c>
+      <c r="C8">
+        <v>0.7242001415982117</v>
+      </c>
+      <c r="D8">
+        <v>0.8887030842082398</v>
       </c>
     </row>
   </sheetData>
